--- a/Expe_perception_verif_methodo_2/Expe_perception_verif_methodo_2.xlsx
+++ b/Expe_perception_verif_methodo_2/Expe_perception_verif_methodo_2.xlsx
@@ -16,12 +16,12 @@
     <sheet name="OLD" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Design!$A$1:$A$181</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Design!$A$1:$E$181</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Expe_perception_verif_methodo_2!$A$1:$AY$181</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Design!$A$1:$E$181</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Fillers!$A$1:$K$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Fillers!$B$1:$K$61</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Fillers!$B$1:$I$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Design!$A$1:$A$181</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Fillers!$B$1:$G$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Fillers!$B$1:$G$61</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Fillers!$B$1:$E$61</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">OLD!$B$1:$AT$96</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9790" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9782" uniqueCount="578">
   <si>
     <t xml:space="preserve">stim_num</t>
   </si>
@@ -967,15 +967,18 @@
     <t xml:space="preserve">yn</t>
   </si>
   <si>
+    <t xml:space="preserve">num_syll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spksex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spk</t>
+  </si>
+  <si>
     <t xml:space="preserve">stimnum</t>
   </si>
   <si>
-    <t xml:space="preserve">texte_expe!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">num_syll</t>
-  </si>
-  <si>
     <t xml:space="preserve">pronom</t>
   </si>
   <si>
@@ -985,58 +988,241 @@
     <t xml:space="preserve">adj_pos</t>
   </si>
   <si>
-    <t xml:space="preserve">spksex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">spk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">181-we-OR-FI-FI-0-8-MR-F-FI</t>
+    <t xml:space="preserve">181-we-CL-FI-FI-0-14-LU-M-quelle_avocate_grandiose_a_défendu_cet_accusé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle avocate grandiose a défendu cet accusé ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wh-ex-situ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grandiose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">182-we-CL-FI-FI-0-13-LU-M-quelle_députée_mauvaise_a_gagné_les_élections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle députée mauvaise a gagné les élections ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manipulateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">183-we-DE-FI-FI-0-13-LU-M-quelle_élève_enthousiaste_le_prof_a_félicitée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle élève enthousiaste le prof a félicitée ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enthousiaste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">184-we-DE-FI-FI-0-11-LU-M-quelle_fin_étonnante_l_auteur_a_divulguée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle fin étonnante l’auteur a divulguée ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">étonnant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">185-we-DE-FI-FI-0-11-LU-M-quelle_tarte_appétissante_elle_a_cuisinée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle tarte appétissante elle a cuisinée ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appétissant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186-we-OR-FI-FI-0-9-LU-M-quel_curieux_jeu_le_croupier_adore</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel curieux jeu le croupier adore ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">curieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">187-we-OR-FI-FI-0-13-LU-M-quel_repas_délicieux_alexandre_a_cuisiné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel repas délicieux Alexandre a cuisiné ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">délicieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188-we-CL-FI-FI-0-11-MR-F-quel_méchant_coupable_le_juge_a_condamné</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel méchant coupable le juge a condamné ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">méchant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189-we-CL-FI-FI-0-9-MR-F-quelle_fabuleuse_jupe_elle_a_achetée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle fabuleuse jupe elle a achetée ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fabuleux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">190-we-DE-FI-FI-0-12-MR-F-quel_excellent_dessert_paul_a_apporté</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel excellent dessert Paul a apporté ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">191-we-DE-FI-FI-0-12-MR-F-quel_magnifique_bal_pauline_a_organisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel magnifique bal Pauline a organisé ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">magnifique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192-we-DE-FI-FI-0-8-MR-F-quelle_voiture_énorme_il_désire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle voiture énorme il désire ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">énorme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">193-we-OR-FI-FI-0-11-MR-F-quel_agréable_paysage_il_a_peint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel agréable paysage il a peint ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agréable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">194-we-OR-FI-FI-0-8-MR-F-quel_merveilleux_homme_est_parti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel merveilleux homme est parti ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">merveilleux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">195-we-CL-FI-FI-0-14-MT-F-quel_étudiant_intelligent_a_écrit_ce_devoir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel étudiant intelligent a écrit ce devoir ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intelligent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">196-we-CL-FI-FI-0-11-MT-F-quel_gentil_garçon_a_envoyé_cette_lettre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel gentil garçon a envoyé cette lettre ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gentil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">197-we-CL-FI-FI-0-12-MT-F-quel_objet_utile_l_artisan_a_fabriqué</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel objet utile l’artisan a fabriqué ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">utile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">198-we-DE-FI-FI-0-11-MT-F-quel_ancien_cinéma_la_ville_a_détruit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel ancien cinéma la ville a détruit ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vieux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">199-we-DE-FI-FI-0-10-MT-F-quelle_grande_footballeuse_a_marqué_ce_but</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle grande footballeuse a marqué ce but ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200-we-OR-FI-FI-0-12-MT-F-quel_charmant_garçon_caroline_a_invité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel charmant garçon Caroline a invité ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charmant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">201-we-OR-FI-FI-0-11-MT-F-quelle_boîte_adorable_l_artiste_a_fabriquée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle boîte adorable l’artiste a fabriquée ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">adorable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">202-we-OR-FI-FI-0-10-MT-F-quelle_femme_superbe_oscar_veut_embrasser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle femme superbe Oscar veut embrasser ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">superbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">203-we-CL-FI-FI-0-11-SI-M-quel_chaton_mignon_charlotte_a_adopté</t>
   </si>
   <si>
     <t xml:space="preserve">quel chaton mignon Charlotte a adopté ?</t>
   </si>
   <si>
-    <t xml:space="preserve">wh-ex-situ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel</t>
+    <t xml:space="preserve">SI</t>
   </si>
   <si>
     <t xml:space="preserve">mignon</t>
   </si>
   <si>
-    <t xml:space="preserve">POST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">182-we-OR-FI-FI-0-10-MT-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel étudiant intelligent a écrit ce devoir ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intelligent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183-we-CL-FI-FI-0-14-MT-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel gentil garçon a envoyé cette lettre ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gentil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">184-we-OR-FI-FI-0-12-MT-F-FI</t>
+    <t xml:space="preserve">204-we-CL-FI-FI-0-10-SI-M-quel_livre_parfait_marc_a_terminé</t>
   </si>
   <si>
     <t xml:space="preserve">quel livre parfait Marc a terminé ?</t>
@@ -1045,61 +1231,7 @@
     <t xml:space="preserve">parfait</t>
   </si>
   <si>
-    <t xml:space="preserve">185-we-OR-FI-FI-0-10-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel méchant coupable le juge a condamné ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">méchant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">186-we-CL-FI-FI-0-11-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel objet utile l’artisan a fabriqué ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">utile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">187-we-OR-FI-FI-0-11-MT-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle avocate grandiose a défendu cet accusé ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grandiose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188-we-OR-FI-FI-0-9-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle députée mauvaise a gagné les élections ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manipulateur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189-we-CL-FI-FI-0-9-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle fabuleuse jupe elle a achetée ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fabuleux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190-we-OR-FI-FI-0-11-MR-F-FI</t>
+    <t xml:space="preserve">205-we-CL-FI-FI-0-11-SI-M-quelle_violente_tempête_a_détruit_la_maison</t>
   </si>
   <si>
     <t xml:space="preserve">quelle violente tempête a détruit la maison ?</t>
@@ -1108,61 +1240,7 @@
     <t xml:space="preserve">violent</t>
   </si>
   <si>
-    <t xml:space="preserve">191-we-OR-FI-FI-0-13-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel ancien cinéma la ville a détruit ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vieux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192-we-CL-FI-FI-0-12-MT-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel excellent dessert Paul a apporté ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">excellent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">193-we-OR-FI-FI-0-9-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel magnifique bal Pauline a organisé ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">magnifique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">194-we-OR-FI-FI-0-11-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle élève enthousiaste le prof a félicitée ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">enthousiaste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">195-we-CL-FI-FI-0-13-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle fin étonnante l’auteur a divulguée ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">étonnant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">196-we-CL-FI-FI-0-11-MT-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle grande footballeuse a marqué ce but ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">grand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">197-we-DE-FI-FI-0-10-MT-F-FI</t>
+    <t xml:space="preserve">206-we-DE-FI-FI-0-10-SI-M-quelle_minuscule_statuette_le_sage_adore</t>
   </si>
   <si>
     <t xml:space="preserve">quelle minuscule statuette le sage adore ?</t>
@@ -1171,7 +1249,7 @@
     <t xml:space="preserve">minuscule</t>
   </si>
   <si>
-    <t xml:space="preserve">198-we-DE-FI-FI-0-11-MT-F-FI</t>
+    <t xml:space="preserve">207-we-DE-FI-FI-0-9-SI-M-quelle_peinture_somptueuse_ils_ont_achetée</t>
   </si>
   <si>
     <t xml:space="preserve">quelle peinture somptueuse ils ont achetée ?</t>
@@ -1180,52 +1258,7 @@
     <t xml:space="preserve">somptueux</t>
   </si>
   <si>
-    <t xml:space="preserve">199-we-CL-FI-FI-0-10-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle tarte appétissante elle a cuisinée ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appétissant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200-we-DE-FI-FI-0-8-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle voiture énorme il désire ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">énorme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">201-we-DE-FI-FI-0-12-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel agréable paysage il a peint ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">agréable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-we-CL-FI-FI-0-14-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel charmant garçon Caroline a invité ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charmant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">203-we-DE-FI-FI-0-12-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel curieux jeu le croupier adore ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">curieux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">204-we-DE-FI-FI-0-11-LU-M-FI</t>
+    <t xml:space="preserve">208-we-OR-FI-FI-0-10-SI-M-quel_joli_bureau_martin_a_construit</t>
   </si>
   <si>
     <t xml:space="preserve">quel joli bureau Martin a construit ?</t>
@@ -1234,34 +1267,7 @@
     <t xml:space="preserve">joli</t>
   </si>
   <si>
-    <t xml:space="preserve">205-we-CL-FI-FI-0-11-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel merveilleux homme est parti ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">merveilleux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">206-we-DE-FI-FI-0-9-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel repas délicieux Alexandre a cuisiné ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">délicieux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">207-we-DE-FI-FI-0-10-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle boîte adorable l’artiste a fabriquée?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">adorable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">208-we-CL-FI-FI-0-11-SI-M-FI</t>
+    <t xml:space="preserve">209-we-OR-FI-FI-0-11-SI-M-quelle_femme_époustouflante_il_va_épouser</t>
   </si>
   <si>
     <t xml:space="preserve">quelle femme époustouflante il va épouser ?</t>
@@ -1270,16 +1276,7 @@
     <t xml:space="preserve">époustouflant</t>
   </si>
   <si>
-    <t xml:space="preserve">209-we-DE-FI-FI-0-13-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle femme superbe Oscar veut embrasser ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">superbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">210-we-DE-FI-FI-0-11-LU-M-FI</t>
+    <t xml:space="preserve">210-we-OR-FI-FI-0-9-SI-M-quelle_haute_tour_il_a_escaladé</t>
   </si>
   <si>
     <t xml:space="preserve">quelle haute tour il a escaladé ?</t>
@@ -1288,7 +1285,7 @@
     <t xml:space="preserve">haut</t>
   </si>
   <si>
-    <t xml:space="preserve">211-ex-OR-FI-FI-0-13-MT-F-FI</t>
+    <t xml:space="preserve">211-ex-CL-FI-FI-0-10-LU-M-quel_chien_minuscule_il_a_caressé</t>
   </si>
   <si>
     <t xml:space="preserve">quel chien minuscule il a caressé !</t>
@@ -1297,178 +1294,178 @@
     <t xml:space="preserve">wh-exclamative</t>
   </si>
   <si>
-    <t xml:space="preserve">212-ex-OR-FI-FI-0-10-MT-F-FI</t>
+    <t xml:space="preserve">212-ex-CL-FI-FI-0-13-LU-M-quel_grandiose_évènement_françoise_a_organisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel grandiose évènement Françoise a organisé !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213-ex-CL-FI-FI-0-9-LU-M-quel_superbe_tableau_pierre_a_peint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel superbe tableau Pierre a peint !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">214-ex-DE-FI-FI-0-8-LU-M-quel_homme_grand_sophie_a_battu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel homme grand Sophie a battu !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">215-ex-DE-FI-FI-0-11-LU-M-quel_somptueux_opéra_ils_ont_programmé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel somptueux opéra ils ont programmé !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">216-ex-OR-FI-FI-0-11-LU-M-quelle_fille_gentille_l_instituteur_a_grondée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle fille gentille l’instituteur a grondée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217-ex-OR-FI-FI-0-12-LU-M-quelle_salle_magnifique_la_mairie_a_décorée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle salle magnifique la mairie a décorée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218-ex-OR-FI-FI-0-11-LU-M-quelle_utile_inspiration_il_m_a_donnée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle utile inspiration il m’a donnée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219-ex-CL-FI-FI-0-14-MR-F-quel_enthousiaste_musicien_a_enregistré_l_album</t>
   </si>
   <si>
     <t xml:space="preserve">quel enthousiaste musicien a enregistré l’album !</t>
   </si>
   <si>
-    <t xml:space="preserve">213-ex-CL-FI-FI-0-15-MT-F-FI</t>
+    <t xml:space="preserve">220-ex-CL-FI-FI-0-12-MR-F-quelle_balade_agréable_ils_ont_organisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle balade agréable ils ont organisée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">221-ex-CL-FI-FI-0-9-MR-F-quelle_maison_jolie_ils_ont_trouvée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle maison jolie ils ont trouvée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">222-ex-DE-FI-FI-0-10-MR-F-quel_époustouflant_spectacle_ils_ont_vu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel époustouflant spectacle ils ont vu !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">223-ex-DE-FI-FI-0-10-MR-F-quel_étonnant_programme_il_a_prévu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel étonnant programme il a prévu !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">224-ex-OR-FI-FI-0-13-MR-F-quelle_délicieuse_omelette_le_serveur_a_apportée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle délicieuse omelette le serveur a apportée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">225-ex-OR-FI-FI-0-10-MR-F-quelle_nouvelle_excellente_elle_a_reçue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle nouvelle excellente elle a reçue !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">226-ex-OR-FI-FI-0-11-MR-F-quelle_personne_fabuleuse_il_a_épousée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle personne fabuleuse il a épousée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">227-ex-CL-FI-FI-0-7-MT-F-quelle_fin_curieuse_il_a_eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle fin curieuse il a eu !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">228-ex-CL-FI-FI-0-15-MT-F-quelle_parfaite_introduction_le_doctorant_a_rédigée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle parfaite introduction le doctorant a rédigée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">229-ex-DE-FI-FI-0-12-MT-F-quel_appétissant_repas_il_nous_a_préparé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel appétissant repas il nous a préparé !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">230-ex-DE-FI-FI-0-9-MT-F-quel_livre_ancien_marie_a_trouvé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel livre ancien Marie a trouvé !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231-ex-DE-FI-FI-0-8-MT-F-quel_mauvais_livre_jérôme_a_lu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quel mauvais livre Jérôme a lu !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">232-ex-OR-FI-FI-0-13-MT-F-quelle_intelligente_élève_il_a_récompensée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle intelligente élève il a récompensée !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">233-ex-OR-FI-FI-0-10-MT-F-quelle_mignonne_sculpture_sophie_a_vendue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quelle mignonne sculpture Sophie a vendue !</t>
+  </si>
+  <si>
+    <t xml:space="preserve">234-ex-CL-FI-FI-0-11-SI-M-quel_garçon_adorable_elle_a_rencontré</t>
   </si>
   <si>
     <t xml:space="preserve">quel garçon adorable elle a rencontré !</t>
   </si>
   <si>
-    <t xml:space="preserve">214-ex-OR-FI-FI-0-13-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel grandiose évènement Françoise a organisé !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">215-ex-OR-FI-FI-0-11-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel superbe tableau Pierre a peint !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216-ex-CL-FI-FI-0-12-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle balade agréable ils ont organisée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">217-ex-OR-FI-FI-0-11-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle fin curieuse il a eu !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218-ex-OR-FI-FI-0-11-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle maison jolie ils ont trouvée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">219-ex-CL-FI-FI-0-7-MT-F-FI</t>
+    <t xml:space="preserve">235-ex-CL-FI-FI-0-9-SI-M-quelle_montagne_haute_ils_ont_creusée</t>
   </si>
   <si>
     <t xml:space="preserve">quelle montagne haute ils ont creusée !</t>
   </si>
   <si>
-    <t xml:space="preserve">220-ex-OR-FI-FI-0-10-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle parfaite introduction le doctorant a rédigée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221-ex-OR-FI-FI-0-11-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel appétissant repas il nous a préparé !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">222-ex-CL-FI-FI-0-9-MR-F-FI</t>
+    <t xml:space="preserve">236-ex-DE-FI-FI-0-11-SI-M-quel_énorme_bâtiment_il_a_construit</t>
   </si>
   <si>
     <t xml:space="preserve">quel énorme bâtiment il a construit !</t>
   </si>
   <si>
-    <t xml:space="preserve">223-ex-OR-FI-FI-0-12-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel époustouflant spectacle ils ont vu !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">224-ex-OR-FI-FI-0-12-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel étonnant programme il a prévu !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">225-ex-CL-FI-FI-0-9-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel homme grand Sophie a battu !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">226-ex-CL-FI-FI-0-14-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel livre ancien Marie a trouvé !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">227-ex-DE-FI-FI-0-10-MR-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel mauvais livre Jérôme a lu !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">228-ex-DE-FI-FI-0-10-MR-F-FI</t>
+    <t xml:space="preserve">237-ex-DE-FI-FI-0-10-SI-M-quel_orage_violent_a_fait_peur_au_chien</t>
   </si>
   <si>
     <t xml:space="preserve">quel orage violent a fait peur au chien !</t>
   </si>
   <si>
-    <t xml:space="preserve">229-ex-CL-FI-FI-0-13-LU-M-FI</t>
+    <t xml:space="preserve">238-ex-DE-FI-FI-0-11-SI-M-quel_professeur_charmant_ils_ont_décoré</t>
   </si>
   <si>
     <t xml:space="preserve">quel professeur charmant ils ont décoré !</t>
   </si>
   <si>
-    <t xml:space="preserve">230-ex-DE-FI-FI-0-8-MT-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quel somptueux opéra ils ont programmé !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">231-ex-DE-FI-FI-0-11-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle délicieuse omelette le serveur a apportée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232-ex-CL-FI-FI-0-11-SI-M-FI</t>
+    <t xml:space="preserve">239-ex-OR-FI-FI-0-11-SI-M-quelle_église_merveilleuse_ils_ont_visitée</t>
   </si>
   <si>
     <t xml:space="preserve">quelle église merveilleuse ils ont visitée !</t>
   </si>
   <si>
-    <t xml:space="preserve">233-ex-DE-FI-FI-0-12-MT-F-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle fille gentille l’instituteur a grondée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">234-ex-DE-FI-FI-0-11-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle intelligente élève il a récompensée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">235-ex-CL-FI-FI-0-9-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle mignonne sculpture Sophie a vendue !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">236-ex-DE-FI-FI-0-11-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle nouvelle excellente elle a reçue !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">237-ex-DE-FI-FI-0-8-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle personne fabuleuse il a épousée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">238-ex-CL-FI-FI-0-10-LU-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle salle magnifique la mairie a décorée !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">239-ex-DE-FI-FI-0-9-MT-F-FI</t>
+    <t xml:space="preserve">240-ex-OR-FI-FI-0-12-SI-M-quelle_sorcière_méchante_le_héros_a_combattu</t>
   </si>
   <si>
     <t xml:space="preserve">quelle sorcière méchante le héros a combattu !</t>
-  </si>
-  <si>
-    <t xml:space="preserve">240-ex-DE-FI-FI-0-10-SI-M-FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quelle utile inspiration il m’a donnée !</t>
   </si>
   <si>
     <t xml:space="preserve">WE2_A007_1740s485</t>
@@ -1828,7 +1825,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1998,24 +1995,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="medium"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="medium"/>
       <right style="medium"/>
       <top style="medium"/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left style="medium"/>
       <right style="medium"/>
       <top style="thin"/>
-      <bottom style="thin"/>
+      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -2062,7 +2052,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2199,16 +2189,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="22" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="26" xfId="24" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2289,7 +2275,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -2528,11 +2514,11 @@
         </c:ser>
         <c:gapWidth val="100"/>
         <c:overlap val="0"/>
-        <c:axId val="57043648"/>
-        <c:axId val="37774553"/>
+        <c:axId val="63468472"/>
+        <c:axId val="29158656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="57043648"/>
+        <c:axId val="63468472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2560,7 +2546,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37774553"/>
+        <c:crossAx val="29158656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2568,7 +2554,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="37774553"/>
+        <c:axId val="29158656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2605,7 +2591,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57043648"/>
+        <c:crossAx val="63468472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2672,9 +2658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>122040</xdr:colOff>
+      <xdr:colOff>119520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>144720</xdr:rowOff>
+      <xdr:rowOff>142200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2682,8 +2668,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6619680" y="813240"/>
-        <a:ext cx="5913360" cy="3232800"/>
+        <a:off x="6685920" y="813240"/>
+        <a:ext cx="5968440" cy="3230280"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -3518,77 +3504,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="60" createdVersion="3">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" recordCount="59" createdVersion="3">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B1:K61" sheet="Fillers"/>
+    <worksheetSource ref="B2:G62" sheet="Fillers"/>
   </cacheSource>
-  <cacheFields count="10">
-    <cacheField name="stimnum" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="181" maxValue="240" count="60">
-        <n v="181"/>
-        <n v="182"/>
-        <n v="183"/>
-        <n v="184"/>
-        <n v="185"/>
-        <n v="186"/>
-        <n v="187"/>
-        <n v="188"/>
-        <n v="189"/>
-        <n v="190"/>
-        <n v="191"/>
-        <n v="192"/>
-        <n v="193"/>
-        <n v="194"/>
-        <n v="195"/>
-        <n v="196"/>
-        <n v="197"/>
-        <n v="198"/>
-        <n v="199"/>
-        <n v="200"/>
-        <n v="201"/>
-        <n v="202"/>
-        <n v="203"/>
-        <n v="204"/>
-        <n v="205"/>
-        <n v="206"/>
-        <n v="207"/>
-        <n v="208"/>
-        <n v="209"/>
-        <n v="210"/>
-        <n v="211"/>
-        <n v="212"/>
-        <n v="213"/>
-        <n v="214"/>
-        <n v="215"/>
-        <n v="216"/>
-        <n v="217"/>
-        <n v="218"/>
-        <n v="219"/>
-        <n v="220"/>
-        <n v="221"/>
-        <n v="222"/>
-        <n v="223"/>
-        <n v="224"/>
-        <n v="225"/>
-        <n v="226"/>
-        <n v="227"/>
-        <n v="228"/>
-        <n v="229"/>
-        <n v="230"/>
-        <n v="231"/>
-        <n v="232"/>
-        <n v="233"/>
-        <n v="234"/>
-        <n v="235"/>
-        <n v="236"/>
-        <n v="237"/>
-        <n v="238"/>
-        <n v="239"/>
-        <n v="240"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="texte_expe!" numFmtId="0">
-      <sharedItems count="60">
+  <cacheFields count="6">
+    <cacheField name="quelle avocate grandiose a défendu cet accusé ?" numFmtId="0">
+      <sharedItems containsBlank="1" count="60">
         <s v="quel agréable paysage il a peint ?"/>
         <s v="quel ancien cinéma la ville a détruit ?"/>
         <s v="quel appétissant repas il nous a préparé !"/>
@@ -3619,9 +3541,8 @@
         <s v="quel repas délicieux Alexandre a cuisiné ?"/>
         <s v="quel somptueux opéra ils ont programmé !"/>
         <s v="quel superbe tableau Pierre a peint !"/>
-        <s v="quelle avocate grandiose a défendu cet accusé ?"/>
         <s v="quelle balade agréable ils ont organisée !"/>
-        <s v="quelle boîte adorable l’artiste a fabriquée?"/>
+        <s v="quelle boîte adorable l’artiste a fabriquée ?"/>
         <s v="quelle délicieuse omelette le serveur a apportée !"/>
         <s v="quelle députée mauvaise a gagné les élections ?"/>
         <s v="quelle église merveilleuse ils ont visitée !"/>
@@ -3649,23 +3570,26 @@
         <s v="quelle utile inspiration il m’a donnée !"/>
         <s v="quelle violente tempête a détruit la maison ?"/>
         <s v="quelle voiture énorme il désire ?"/>
+        <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="type-de-phrase" numFmtId="0">
-      <sharedItems count="2">
+    <cacheField name="wh-ex-situ" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
         <s v="wh-ex-situ"/>
         <s v="wh-exclamative"/>
+        <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="audio-type" numFmtId="0">
-      <sharedItems count="3">
+    <cacheField name="clair" numFmtId="0">
+      <sharedItems containsBlank="1" count="4">
         <s v="clair"/>
         <s v="delex"/>
         <s v="orig"/>
+        <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="num_syll" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="7" maxValue="15" count="9">
+    <cacheField name="14" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="7" maxValue="15" count="10">
         <n v="7"/>
         <n v="8"/>
         <n v="9"/>
@@ -3675,66 +3599,23 @@
         <n v="13"/>
         <n v="14"/>
         <n v="15"/>
+        <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="pronom" numFmtId="0">
-      <sharedItems count="2">
-        <s v="quel"/>
-        <s v="quelle"/>
+    <cacheField name="M" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="F"/>
+        <s v="M"/>
+        <m/>
       </sharedItems>
     </cacheField>
-    <cacheField name="adj" numFmtId="0">
-      <sharedItems count="30">
-        <s v="adorable"/>
-        <s v="agréable"/>
-        <s v="appétissant"/>
-        <s v="charmant"/>
-        <s v="curieux"/>
-        <s v="délicieux"/>
-        <s v="énorme"/>
-        <s v="enthousiaste"/>
-        <s v="époustouflant"/>
-        <s v="étonnant"/>
-        <s v="excellent"/>
-        <s v="fabuleux"/>
-        <s v="gentil"/>
-        <s v="grand"/>
-        <s v="grandiose"/>
-        <s v="haut"/>
-        <s v="intelligent"/>
-        <s v="joli"/>
-        <s v="magnifique"/>
-        <s v="manipulateur"/>
-        <s v="méchant"/>
-        <s v="merveilleux"/>
-        <s v="mignon"/>
-        <s v="minuscule"/>
-        <s v="parfait"/>
-        <s v="somptueux"/>
-        <s v="superbe"/>
-        <s v="utile"/>
-        <s v="vieux"/>
-        <s v="violent"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="adj_pos" numFmtId="0">
-      <sharedItems count="2">
-        <s v="POST"/>
-        <s v="PRE"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="spksex" numFmtId="0">
-      <sharedItems count="2">
-        <s v="F"/>
-        <s v="M"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="spk" numFmtId="0">
-      <sharedItems count="4">
+    <cacheField name="LU" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
         <s v="LU"/>
         <s v="MR"/>
         <s v="MT"/>
         <s v="SI"/>
+        <m/>
       </sharedItems>
     </cacheField>
   </cacheFields>
@@ -13287,726 +13168,478 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="59">
+  <r>
+    <x v="33"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="55"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
   <r>
     <x v="27"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="0"/>
+    <x v="0"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="58"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
     <x v="4"/>
     <x v="0"/>
-    <x v="22"/>
-    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
     <x v="1"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="2"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="16"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="19"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
-    <x v="15"/>
-    <x v="14"/>
+    <x v="57"/>
     <x v="0"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="0"/>
-    <x v="12"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
-    <x v="18"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="47"/>
+    <x v="0"/>
+    <x v="1"/>
     <x v="3"/>
-    <x v="0"/>
-    <x v="24"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="51"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
     <x v="1"/>
     <x v="3"/>
   </r>
   <r>
     <x v="5"/>
-    <x v="22"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="20"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
   </r>
   <r>
-    <x v="11"/>
-    <x v="24"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="15"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="53"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="5"/>
-    <x v="0"/>
-    <x v="27"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="56"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="45"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="6"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="49"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="52"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="50"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="0"/>
     <x v="2"/>
   </r>
   <r>
     <x v="21"/>
-    <x v="30"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="14"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
-    <x v="14"/>
-    <x v="34"/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="44"/>
+    <x v="1"/>
+    <x v="2"/>
     <x v="6"/>
-    <x v="1"/>
-    <x v="19"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
-    <x v="8"/>
-    <x v="37"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="46"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="2"/>
   </r>
   <r>
-    <x v="24"/>
-    <x v="58"/>
-    <x v="0"/>
+    <x v="13"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="4"/>
-    <x v="1"/>
-    <x v="29"/>
-    <x v="1"/>
     <x v="1"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="28"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
+    <x v="48"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
   <r>
-    <x v="20"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="20"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="18"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="36"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="1"/>
     <x v="7"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="42"/>
-    <x v="0"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="1"/>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="43"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="48"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="23"/>
-    <x v="1"/>
     <x v="1"/>
     <x v="3"/>
   </r>
   <r>
     <x v="25"/>
-    <x v="52"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="25"/>
-    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
     <x v="1"/>
     <x v="3"/>
   </r>
   <r>
-    <x v="23"/>
-    <x v="56"/>
-    <x v="0"/>
+    <x v="26"/>
+    <x v="1"/>
     <x v="1"/>
     <x v="4"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="59"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="17"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="0"/>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="21"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="27"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="32"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="38"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="8"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="39"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="26"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="44"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="23"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="0"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="13"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="15"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="0"/>
-    <x v="14"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="29"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="26"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="31"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="41"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="46"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="17"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="49"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="15"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="51"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="24"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="0"/>
-    <x v="2"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="7"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="8"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="10"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="9"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="13"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="18"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="0"/>
-    <x v="28"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="21"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="19"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="25"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="29"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="26"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="3"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="28"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="25"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="35"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="21"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="12"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="45"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="6"/>
-    <x v="1"/>
-    <x v="16"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="47"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="22"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="50"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="10"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="53"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="4"/>
-    <x v="1"/>
-    <x v="11"/>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="54"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="18"/>
-    <x v="0"/>
-    <x v="1"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="55"/>
-    <x v="1"/>
-    <x v="2"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="20"/>
-    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
   </r>
   <r>
     <x v="34"/>
-    <x v="57"/>
     <x v="1"/>
     <x v="2"/>
     <x v="4"/>
     <x v="1"/>
-    <x v="27"/>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="0"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="54"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="3"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -14119,35 +13752,15 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DataPilot1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="Values" useAutoFormatting="0" itemPrintTitles="1" indent="0" outline="0" outlineData="0" compact="0" compactData="0">
-  <location ref="A1:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="10">
+  <location ref="A1:A2" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="6">
     <pivotField compact="0" showAll="0"/>
     <pivotField dataField="1" compact="0" showAll="0" outline="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
     <pivotField compact="0" showAll="0"/>
-    <pivotField compact="0" showAll="0"/>
-    <pivotField axis="axisCol" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" compact="0" showAll="0" defaultSubtotal="0" outline="0">
-      <items count="2">
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <colFields count="1">
-    <field x="7"/>
-  </colFields>
   <dataFields count="1">
     <dataField name="Compter - texte_expe" fld="1" subtotal="count" numFmtId="164"/>
   </dataFields>
@@ -14162,11 +13775,11 @@
   </sheetPr>
   <dimension ref="A1:AY181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.36"/>
@@ -35743,11 +35356,11 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
@@ -36295,11 +35908,11 @@
   </sheetPr>
   <dimension ref="A1:L181"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
@@ -39480,7 +39093,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A181"/>
+  <autoFilter ref="A1:E181"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -39499,17 +39112,19 @@
   </sheetPr>
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="7" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="41.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="13.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -39517,2136 +39132,2136 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>315</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>316</v>
       </c>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>317</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>208</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>318</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="E3" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="I5" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="I2" s="0" t="s">
+      <c r="J5" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>333</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K2" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>183</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>319</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="H6" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="E9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="F16" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>376</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="I20" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="J20" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H22" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="K22" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="J3" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>388</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>196</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="G23" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>391</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="E24" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="F24" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>398</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="I26" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>199</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="J26" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>401</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="F27" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="I27" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H5" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I5" s="0" t="s">
+      <c r="J27" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>404</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="K28" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="J5" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K5" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>186</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="G29" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="F30" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="I30" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H6" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J6" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="J30" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="K31" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="B7" s="0" t="n">
-        <v>192</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H7" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J7" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>342</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>343</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H8" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>195</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H9" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>350</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>189</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>351</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H10" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J10" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>353</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>205</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H11" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>356</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>198</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>357</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H12" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J12" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>201</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>360</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H13" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J13" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>362</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>203</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>363</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H14" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="I14" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J14" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K14" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>365</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>209</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>366</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K15" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>368</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>210</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>369</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F16" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K16" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>371</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>197</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>372</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K17" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>374</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>207</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>375</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>206</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>378</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>380</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>204</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>381</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>383</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>384</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>386</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>190</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>387</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K22" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>389</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>184</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>390</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F23" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>392</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>188</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>393</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H24" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="I24" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J24" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K24" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>395</v>
-      </c>
-      <c r="B25" s="0" t="n">
-        <v>185</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G25" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I25" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J25" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K25" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>398</v>
-      </c>
-      <c r="B26" s="0" t="n">
-        <v>181</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>399</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>401</v>
-      </c>
-      <c r="B27" s="0" t="n">
-        <v>191</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G27" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H27" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="I27" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J27" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K27" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>404</v>
-      </c>
-      <c r="B28" s="0" t="n">
-        <v>187</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>405</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H28" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="I28" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J28" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K28" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="B29" s="0" t="n">
-        <v>194</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F29" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G29" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H29" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="I29" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J29" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K29" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>410</v>
-      </c>
-      <c r="B30" s="0" t="n">
-        <v>182</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>411</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F30" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H30" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="I30" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J30" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>413</v>
-      </c>
-      <c r="B31" s="0" t="n">
-        <v>193</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>414</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G31" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H31" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I31" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J31" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K31" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="B32" s="0" t="s">
         <v>416</v>
-      </c>
-      <c r="B32" s="0" t="n">
-        <v>238</v>
       </c>
       <c r="C32" s="0" t="s">
         <v>417</v>
       </c>
       <c r="D32" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>402</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="E32" s="0" t="s">
+      <c r="B33" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="E33" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>421</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="I34" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J34" s="0" t="s">
+        <v>389</v>
+      </c>
+      <c r="K34" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G35" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="I35" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J35" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="K35" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="I36" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J36" s="0" t="s">
+        <v>405</v>
+      </c>
+      <c r="K36" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D37" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H37" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="I37" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J37" s="0" t="s">
+        <v>371</v>
+      </c>
+      <c r="K37" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>429</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D38" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H38" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="I38" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J38" s="0" t="s">
+        <v>355</v>
+      </c>
+      <c r="K38" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>431</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G39" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="H39" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="I39" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J39" s="0" t="s">
+        <v>374</v>
+      </c>
+      <c r="K39" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H40" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="I40" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H41" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="I41" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>361</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H42" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="I42" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="K42" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="F43" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H43" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="I43" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J43" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="K43" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>441</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D44" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H44" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="I44" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D45" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H45" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="I45" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>376</v>
-      </c>
-      <c r="I32" s="0" t="s">
+      <c r="J45" s="0" t="s">
+        <v>342</v>
+      </c>
+      <c r="K45" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>445</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="I46" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J46" s="0" t="s">
+        <v>352</v>
+      </c>
+      <c r="K46" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="J32" s="0" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="H47" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="I47" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J47" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="K47" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>449</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D48" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H48" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="I48" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J48" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="K48" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="C49" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H49" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="I49" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J49" s="0" t="s">
+        <v>396</v>
+      </c>
+      <c r="K49" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>453</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D50" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H50" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="I50" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J50" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="K50" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="C51" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D51" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H51" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="I51" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J51" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="K51" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D52" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H52" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="I52" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J52" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="K52" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="C53" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D53" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H53" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="I53" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J53" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="K53" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>461</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D54" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="H54" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="I54" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J54" s="0" t="s">
+        <v>393</v>
+      </c>
+      <c r="K54" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>463</v>
+      </c>
+      <c r="C55" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D55" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F55" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="K32" s="0" t="s">
+      <c r="G55" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H55" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="I55" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J55" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="K55" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H56" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="I56" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="K56" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>467</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H57" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="I57" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>469</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H58" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="I58" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J58" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="K58" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>471</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H59" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="I59" s="0" t="s">
+        <v>337</v>
+      </c>
+      <c r="J59" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="K59" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>473</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D60" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F60" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H60" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="I60" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J60" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="K60" s="0" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="D61" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G61" s="0" t="s">
+        <v>392</v>
+      </c>
+      <c r="H61" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="I61" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="J61" s="0" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="B33" s="0" t="n">
-        <v>226</v>
-      </c>
-      <c r="C33" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F33" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H33" s="0" t="s">
-        <v>367</v>
-      </c>
-      <c r="I33" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J33" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K33" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B34" s="0" t="n">
-        <v>232</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F34" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H34" s="0" t="s">
-        <v>406</v>
-      </c>
-      <c r="I34" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J34" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K34" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B35" s="0" t="n">
-        <v>229</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="D35" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F35" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G35" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H35" s="0" t="s">
-        <v>345</v>
-      </c>
-      <c r="I35" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J35" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K35" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B36" s="0" t="n">
-        <v>235</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="D36" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F36" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H36" s="0" t="s">
-        <v>412</v>
-      </c>
-      <c r="I36" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J36" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K36" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B37" s="0" t="n">
-        <v>216</v>
-      </c>
-      <c r="C37" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="D37" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F37" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G37" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H37" s="0" t="s">
-        <v>388</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="K61" s="0" t="s">
         <v>322</v>
-      </c>
-      <c r="J37" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B38" s="0" t="n">
-        <v>219</v>
-      </c>
-      <c r="C38" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="D38" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E38" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F38" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H38" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="I38" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J38" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K38" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="B39" s="0" t="n">
-        <v>222</v>
-      </c>
-      <c r="C39" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="D39" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E39" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F39" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G39" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="I39" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J39" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K39" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>433</v>
-      </c>
-      <c r="B40" s="0" t="n">
-        <v>225</v>
-      </c>
-      <c r="C40" s="0" t="s">
-        <v>434</v>
-      </c>
-      <c r="D40" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F40" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H40" s="0" t="s">
-        <v>415</v>
-      </c>
-      <c r="I40" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J40" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K40" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="B41" s="0" t="n">
-        <v>213</v>
-      </c>
-      <c r="C41" s="0" t="s">
-        <v>436</v>
-      </c>
-      <c r="D41" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F41" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="G41" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H41" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="I41" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J41" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K41" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>437</v>
-      </c>
-      <c r="B42" s="0" t="n">
-        <v>233</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>438</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F42" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H42" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="I42" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J42" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K42" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>439</v>
-      </c>
-      <c r="B43" s="0" t="n">
-        <v>234</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>440</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G43" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H43" s="0" t="s">
-        <v>385</v>
-      </c>
-      <c r="I43" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J43" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K43" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>441</v>
-      </c>
-      <c r="B44" s="0" t="n">
-        <v>227</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>442</v>
-      </c>
-      <c r="D44" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E44" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F44" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H44" s="0" t="s">
-        <v>409</v>
-      </c>
-      <c r="I44" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K44" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>443</v>
-      </c>
-      <c r="B45" s="0" t="n">
-        <v>228</v>
-      </c>
-      <c r="C45" s="0" t="s">
-        <v>444</v>
-      </c>
-      <c r="D45" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F45" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H45" s="0" t="s">
-        <v>370</v>
-      </c>
-      <c r="I45" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K45" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>445</v>
-      </c>
-      <c r="B46" s="0" t="n">
-        <v>237</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>446</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H46" s="0" t="s">
-        <v>373</v>
-      </c>
-      <c r="I46" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K46" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>447</v>
-      </c>
-      <c r="B47" s="0" t="n">
-        <v>239</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="D47" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F47" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H47" s="0" t="s">
-        <v>358</v>
-      </c>
-      <c r="I47" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K47" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>449</v>
-      </c>
-      <c r="B48" s="0" t="n">
-        <v>230</v>
-      </c>
-      <c r="C48" s="0" t="s">
-        <v>450</v>
-      </c>
-      <c r="D48" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E48" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H48" s="0" t="s">
-        <v>349</v>
-      </c>
-      <c r="I48" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K48" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>451</v>
-      </c>
-      <c r="B49" s="0" t="n">
-        <v>240</v>
-      </c>
-      <c r="C49" s="0" t="s">
-        <v>452</v>
-      </c>
-      <c r="D49" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F49" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G49" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H49" s="0" t="s">
-        <v>355</v>
-      </c>
-      <c r="I49" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K49" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B50" s="0" t="n">
-        <v>236</v>
-      </c>
-      <c r="C50" s="0" t="s">
-        <v>454</v>
-      </c>
-      <c r="D50" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H50" s="0" t="s">
-        <v>391</v>
-      </c>
-      <c r="I50" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K50" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>455</v>
-      </c>
-      <c r="B51" s="0" t="n">
-        <v>231</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>456</v>
-      </c>
-      <c r="D51" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G51" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="H51" s="0" t="s">
-        <v>379</v>
-      </c>
-      <c r="I51" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K51" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>457</v>
-      </c>
-      <c r="B52" s="0" t="n">
-        <v>214</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>458</v>
-      </c>
-      <c r="D52" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E52" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F52" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H52" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="I52" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K52" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>459</v>
-      </c>
-      <c r="B53" s="0" t="n">
-        <v>218</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>460</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H53" s="0" t="s">
-        <v>400</v>
-      </c>
-      <c r="I53" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K53" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>461</v>
-      </c>
-      <c r="B54" s="0" t="n">
-        <v>221</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>462</v>
-      </c>
-      <c r="D54" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E54" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F54" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H54" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="I54" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K54" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>463</v>
-      </c>
-      <c r="B55" s="0" t="n">
-        <v>211</v>
-      </c>
-      <c r="C55" s="0" t="s">
-        <v>464</v>
-      </c>
-      <c r="D55" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E55" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="G55" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H55" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="I55" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K55" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>465</v>
-      </c>
-      <c r="B56" s="0" t="n">
-        <v>212</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>466</v>
-      </c>
-      <c r="D56" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="I56" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>467</v>
-      </c>
-      <c r="B57" s="0" t="n">
-        <v>220</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>468</v>
-      </c>
-      <c r="D57" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>361</v>
-      </c>
-      <c r="I57" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>469</v>
-      </c>
-      <c r="B58" s="0" t="n">
-        <v>217</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H58" s="0" t="s">
-        <v>352</v>
-      </c>
-      <c r="I58" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="K58" s="0" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>471</v>
-      </c>
-      <c r="B59" s="0" t="n">
-        <v>223</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>472</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G59" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="I59" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K59" s="0" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>473</v>
-      </c>
-      <c r="B60" s="0" t="n">
-        <v>224</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>474</v>
-      </c>
-      <c r="D60" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E60" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H60" s="0" t="s">
-        <v>337</v>
-      </c>
-      <c r="I60" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>475</v>
-      </c>
-      <c r="B61" s="0" t="n">
-        <v>215</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>476</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="E61" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="G61" s="0" t="s">
-        <v>344</v>
-      </c>
-      <c r="H61" s="0" t="s">
-        <v>341</v>
-      </c>
-      <c r="I61" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -41665,78 +41280,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="34" t="s">
         <v>306</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="35"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" s="15" t="n">
-        <v>11</v>
-      </c>
-      <c r="C3" s="17" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" s="19" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="24" t="n">
-        <v>19</v>
-      </c>
-      <c r="C4" s="26" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" s="27" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="C5" s="31" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" s="32" t="n">
-        <v>60</v>
+      <c r="A2" s="35" t="n">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -41758,11 +41317,11 @@
   </sheetPr>
   <dimension ref="A1:AT96"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.66"/>
@@ -42638,19 +42197,19 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>476</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>477</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>478</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>57</v>
@@ -42674,7 +42233,7 @@
         <v>57</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P7" s="0" t="s">
         <v>57</v>
@@ -42763,19 +42322,19 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>480</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>481</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>482</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>56</v>
@@ -42799,7 +42358,7 @@
         <v>57</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="P8" s="0" t="s">
         <v>57</v>
@@ -44368,19 +43927,19 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>482</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>483</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>484</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>57</v>
@@ -44404,7 +43963,7 @@
         <v>57</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="P20" s="0" t="s">
         <v>57</v>
@@ -45773,19 +45332,19 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>485</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>486</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>487</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>56</v>
@@ -45809,7 +45368,7 @@
         <v>57</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P31" s="0" t="s">
         <v>57</v>
@@ -46154,19 +45713,19 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
+        <v>488</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>489</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>490</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>56</v>
@@ -46190,7 +45749,7 @@
         <v>57</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="P34" s="0" t="s">
         <v>57</v>
@@ -47235,19 +46794,19 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
+        <v>491</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="0" t="s">
         <v>492</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>493</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>57</v>
@@ -47271,7 +46830,7 @@
         <v>57</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N42" s="0" t="s">
         <v>196</v>
@@ -47355,10 +46914,10 @@
         <v>85</v>
       </c>
       <c r="AO42" s="0" t="s">
+        <v>493</v>
+      </c>
+      <c r="AP42" s="0" t="s">
         <v>494</v>
-      </c>
-      <c r="AP42" s="0" t="s">
-        <v>495</v>
       </c>
       <c r="AR42" s="0" t="s">
         <v>64</v>
@@ -47932,19 +47491,19 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
+        <v>495</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="0" t="s">
         <v>496</v>
-      </c>
-      <c r="B47" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="0" t="s">
-        <v>497</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F47" s="0" t="s">
         <v>57</v>
@@ -47968,7 +47527,7 @@
         <v>57</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AN47" s="0" t="s">
         <v>60</v>
@@ -47985,19 +47544,19 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
+        <v>498</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="B48" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F48" s="0" t="s">
         <v>57</v>
@@ -48021,7 +47580,7 @@
         <v>57</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AN48" s="0" t="s">
         <v>60</v>
@@ -48150,19 +47709,19 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
+        <v>501</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>502</v>
-      </c>
-      <c r="B51" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>503</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>57</v>
@@ -48186,7 +47745,7 @@
         <v>57</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AN51" s="0" t="s">
         <v>60</v>
@@ -48315,19 +47874,19 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
+        <v>504</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="0" t="s">
         <v>505</v>
-      </c>
-      <c r="B54" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C54" s="0" t="s">
-        <v>506</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>57</v>
@@ -48351,7 +47910,7 @@
         <v>57</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AN54" s="0" t="s">
         <v>60</v>
@@ -48480,19 +48039,19 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>507</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C57" s="0" t="s">
         <v>508</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>509</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F57" s="0" t="s">
         <v>57</v>
@@ -48516,7 +48075,7 @@
         <v>57</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN57" s="0" t="s">
         <v>60</v>
@@ -48645,19 +48204,19 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>510</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="0" t="s">
         <v>511</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C60" s="0" t="s">
-        <v>512</v>
       </c>
       <c r="D60" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F60" s="0" t="s">
         <v>57</v>
@@ -48681,7 +48240,7 @@
         <v>57</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AN60" s="0" t="s">
         <v>85</v>
@@ -48866,13 +48425,13 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
+        <v>512</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C64" s="0" t="s">
         <v>513</v>
-      </c>
-      <c r="B64" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" s="0" t="s">
-        <v>514</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>195</v>
@@ -48902,7 +48461,7 @@
         <v>57</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN64" s="0" t="s">
         <v>60</v>
@@ -48911,7 +48470,7 @@
         <v>281</v>
       </c>
       <c r="AQ64" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR64" s="0" t="s">
         <v>271</v>
@@ -48922,19 +48481,19 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
+        <v>515</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="0" t="s">
         <v>516</v>
-      </c>
-      <c r="B65" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" s="0" t="s">
-        <v>517</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F65" s="0" t="s">
         <v>57</v>
@@ -48958,7 +48517,7 @@
         <v>57</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AN65" s="0" t="s">
         <v>60</v>
@@ -48975,19 +48534,19 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
+        <v>518</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="0" t="s">
         <v>519</v>
-      </c>
-      <c r="B66" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C66" s="0" t="s">
-        <v>520</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F66" s="0" t="s">
         <v>57</v>
@@ -49011,7 +48570,7 @@
         <v>57</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AN66" s="0" t="s">
         <v>60</v>
@@ -49028,13 +48587,13 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
+        <v>521</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C67" s="0" t="s">
         <v>522</v>
-      </c>
-      <c r="B67" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" s="0" t="s">
-        <v>523</v>
       </c>
       <c r="D67" s="0" t="s">
         <v>195</v>
@@ -49064,7 +48623,7 @@
         <v>57</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AN67" s="0" t="s">
         <v>60</v>
@@ -49073,7 +48632,7 @@
         <v>281</v>
       </c>
       <c r="AQ67" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR67" s="0" t="s">
         <v>271</v>
@@ -49084,13 +48643,13 @@
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
+        <v>523</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="0" t="s">
         <v>524</v>
-      </c>
-      <c r="B68" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="0" t="s">
-        <v>525</v>
       </c>
       <c r="D68" s="0" t="s">
         <v>195</v>
@@ -49120,7 +48679,7 @@
         <v>57</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AN68" s="0" t="s">
         <v>60</v>
@@ -49129,7 +48688,7 @@
         <v>281</v>
       </c>
       <c r="AQ68" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR68" s="0" t="s">
         <v>271</v>
@@ -49140,13 +48699,13 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
+        <v>526</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="0" t="s">
         <v>527</v>
-      </c>
-      <c r="B69" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C69" s="0" t="s">
-        <v>528</v>
       </c>
       <c r="D69" s="0" t="s">
         <v>195</v>
@@ -49176,7 +48735,7 @@
         <v>57</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AN69" s="0" t="s">
         <v>60</v>
@@ -49185,7 +48744,7 @@
         <v>281</v>
       </c>
       <c r="AQ69" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR69" s="0" t="s">
         <v>271</v>
@@ -49196,19 +48755,19 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="0" t="s">
         <v>530</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>531</v>
       </c>
       <c r="D70" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F70" s="0" t="s">
         <v>57</v>
@@ -49232,7 +48791,7 @@
         <v>57</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AN70" s="0" t="s">
         <v>60</v>
@@ -49249,19 +48808,19 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
+        <v>532</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="0" t="s">
         <v>533</v>
-      </c>
-      <c r="B71" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="0" t="s">
-        <v>534</v>
       </c>
       <c r="D71" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F71" s="0" t="s">
         <v>57</v>
@@ -49285,7 +48844,7 @@
         <v>57</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AN71" s="0" t="s">
         <v>60</v>
@@ -49302,19 +48861,19 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
+        <v>535</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>536</v>
-      </c>
-      <c r="B72" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>537</v>
       </c>
       <c r="D72" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>57</v>
@@ -49335,7 +48894,7 @@
         <v>57</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AN72" s="0" t="s">
         <v>60</v>
@@ -49352,19 +48911,19 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
+        <v>538</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="0" t="s">
         <v>539</v>
-      </c>
-      <c r="B73" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="0" t="s">
-        <v>540</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F73" s="0" t="s">
         <v>57</v>
@@ -49388,7 +48947,7 @@
         <v>57</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AN73" s="0" t="s">
         <v>60</v>
@@ -49405,19 +48964,19 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="0" t="s">
         <v>542</v>
-      </c>
-      <c r="B74" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>543</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>57</v>
@@ -49441,7 +49000,7 @@
         <v>57</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="AN74" s="0" t="s">
         <v>60</v>
@@ -49458,19 +49017,19 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>545</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>546</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F75" s="0" t="s">
         <v>57</v>
@@ -49494,7 +49053,7 @@
         <v>57</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="AN75" s="0" t="s">
         <v>60</v>
@@ -49567,19 +49126,19 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>548</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>549</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>57</v>
@@ -49603,7 +49162,7 @@
         <v>57</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="AN77" s="0" t="s">
         <v>60</v>
@@ -49676,13 +49235,13 @@
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
+        <v>550</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="0" t="s">
         <v>551</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>552</v>
       </c>
       <c r="D79" s="0" t="s">
         <v>195</v>
@@ -49712,7 +49271,7 @@
         <v>57</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="AN79" s="0" t="s">
         <v>60</v>
@@ -49721,7 +49280,7 @@
         <v>281</v>
       </c>
       <c r="AQ79" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR79" s="0" t="s">
         <v>271</v>
@@ -49732,19 +49291,19 @@
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C80" s="0" t="s">
         <v>554</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>555</v>
       </c>
       <c r="D80" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>57</v>
@@ -49768,7 +49327,7 @@
         <v>57</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AN80" s="0" t="s">
         <v>60</v>
@@ -49785,19 +49344,19 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
+        <v>556</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="0" t="s">
         <v>557</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>558</v>
       </c>
       <c r="D81" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F81" s="0" t="s">
         <v>57</v>
@@ -49821,7 +49380,7 @@
         <v>57</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="AN81" s="0" t="s">
         <v>60</v>
@@ -49894,13 +49453,13 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
+        <v>558</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="0" t="s">
         <v>559</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>560</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>195</v>
@@ -49930,7 +49489,7 @@
         <v>57</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="AN83" s="0" t="s">
         <v>60</v>
@@ -49939,7 +49498,7 @@
         <v>281</v>
       </c>
       <c r="AQ83" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR83" s="0" t="s">
         <v>271</v>
@@ -50062,19 +49621,19 @@
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
+        <v>561</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>57</v>
@@ -50095,7 +49654,7 @@
         <v>57</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="AN86" s="0" t="s">
         <v>60</v>
@@ -50112,13 +49671,13 @@
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
+        <v>564</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>565</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>566</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>195</v>
@@ -50148,7 +49707,7 @@
         <v>57</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="AN87" s="0" t="s">
         <v>60</v>
@@ -50157,7 +49716,7 @@
         <v>281</v>
       </c>
       <c r="AQ87" s="0" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AR87" s="0" t="s">
         <v>271</v>
@@ -50168,19 +49727,19 @@
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
+        <v>566</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="0" t="s">
         <v>567</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>568</v>
       </c>
       <c r="D88" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>57</v>
@@ -50204,7 +49763,7 @@
         <v>57</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="AN88" s="0" t="s">
         <v>60</v>
@@ -50277,19 +49836,19 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
+        <v>569</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="0" t="s">
         <v>570</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>571</v>
       </c>
       <c r="D90" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>57</v>
@@ -50313,7 +49872,7 @@
         <v>57</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AN90" s="0" t="s">
         <v>60</v>
@@ -50386,19 +49945,19 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
+        <v>572</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>573</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>574</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F92" s="0" t="s">
         <v>56</v>
@@ -50422,7 +49981,7 @@
         <v>57</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="AN92" s="0" t="s">
         <v>60</v>
@@ -50551,19 +50110,19 @@
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
+        <v>575</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>576</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>577</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>195</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F95" s="0" t="s">
         <v>57</v>
@@ -50587,7 +50146,7 @@
         <v>57</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="AN95" s="0" t="s">
         <v>60</v>
